--- a/src/main/resources/menRevolveSweater.xlsx
+++ b/src/main/resources/menRevolveSweater.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="178">
-  <si>
-    <t>Category</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="216">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Image</t>
@@ -32,7 +32,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>SWEATERS &amp; KNITS</t>
+    <t>men_revolve_sweater_1</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK11M_V1.jpg</t>
@@ -50,6 +50,27 @@
     <t>https://www.revolve.com/beverly-hills-x-revolve-cashmere-cropped-cable-crew-in-camel/dp/BEVR-WK11/?d=Mens&amp;page=1&amp;lc=1&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>men_revolve_sweater_2</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/WIME-MK1M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Wish Me Luck</t>
+  </si>
+  <si>
+    <t>7 Horse Crewneck</t>
+  </si>
+  <si>
+    <t>CA$ 237.13</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/wish-me-luck-7-horse-crewneck-in-mustard/dp/WIME-MK1/?d=Mens&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_3</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/LCDE-WK146M_V1.jpg</t>
   </si>
   <si>
@@ -62,7 +83,46 @@
     <t>CA$ 240.33</t>
   </si>
   <si>
-    <t>https://www.revolve.com/lacademie-hara-sweater-vest-in-tamarind/dp/LCDE-WK146/?d=Mens&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/lacademie-hara-sweater-vest-in-tamarind/dp/LCDE-WK146/?d=Mens&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_4</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK49M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Polo Ralph Lauren</t>
+  </si>
+  <si>
+    <t>Cable Sweater</t>
+  </si>
+  <si>
+    <t>CA$ 127.74</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/polo-ralph-lauren-cable-sweater-in-andover-cream/dp/PLAU-MK49/?d=Mens&amp;page=1&amp;lc=5&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_5</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/QUIR-MK3M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Quiet Golf</t>
+  </si>
+  <si>
+    <t>Quiet Greens Knit Sweater</t>
+  </si>
+  <si>
+    <t>CA$ 181.05</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/quiet-golf-quiet-greens-knit-sweater-in-forest/dp/QUIR-MK3/?d=Mens&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_6</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK5M_V1.jpg</t>
@@ -71,25 +131,40 @@
     <t>Long Sleeve Cashmere Polo</t>
   </si>
   <si>
-    <t>CA$ 181.05</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-long-sleeve-cashmere-polo-in-black/dp/BEVR-WK5/?d=Mens&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/WIME-MK1M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Wish Me Luck</t>
-  </si>
-  <si>
-    <t>7 Horse Crewneck</t>
-  </si>
-  <si>
-    <t>CA$ 127.74</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/wish-me-luck-7-horse-crewneck-in-mustard/dp/WIME-MK1/?d=Mens&amp;page=1&amp;lc=5&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+    <t>CA$ 637.69</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-long-sleeve-cashmere-polo-in-black/dp/BEVR-WK5/?d=Mens&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_7</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK7M_V1.jpg</t>
+  </si>
+  <si>
+    <t>V Neck Sweater</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-v-neck-sweater-in-ivory/dp/BEVR-WK7/?d=Mens&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_8</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OBEY-MS357_V1.jpg</t>
+  </si>
+  <si>
+    <t>Obey</t>
+  </si>
+  <si>
+    <t>Tear Drop Open Knit Shirt</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/obey-tear-drop-open-knit-shirt-in-hydrangea/dp/OBEY-MS357/?d=Mens&amp;page=1&amp;lc=9&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_9</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK6M_V1.jpg</t>
@@ -98,34 +173,10 @@
     <t>Collegiate Cardigan</t>
   </si>
   <si>
-    <t>CA$ 637.69</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-collegiate-cardigan-in-white/dp/BEVR-WK6/?d=Mens&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/QUIR-MK3M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Quiet Golf</t>
-  </si>
-  <si>
-    <t>Quiet Greens Knit Sweater</t>
-  </si>
-  <si>
-    <t>CA$ 237.13</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/quiet-golf-quiet-greens-knit-sweater-in-forest/dp/QUIR-MK3/?d=Mens&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK7M_V1.jpg</t>
-  </si>
-  <si>
-    <t>V Neck Sweater</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-v-neck-sweater-in-ivory/dp/BEVR-WK7/?d=Mens&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-collegiate-cardigan-in-white/dp/BEVR-WK6/?d=Mens&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_10</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS12_V1.jpg</t>
@@ -137,37 +188,28 @@
     <t>Agatha Knit Polo</t>
   </si>
   <si>
-    <t>https://www.revolve.com/bound-agatha-knit-polo-in-tan/dp/BOUR-MS12/?d=Mens&amp;page=1&amp;lc=9&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OBEY-MS357_V1.jpg</t>
-  </si>
-  <si>
-    <t>Obey</t>
-  </si>
-  <si>
-    <t>Tear Drop Open Knit Shirt</t>
-  </si>
-  <si>
     <t>CA$ 179.45</t>
   </si>
   <si>
-    <t>https://www.revolve.com/obey-tear-drop-open-knit-shirt-in-hydrangea/dp/OBEY-MS357/?d=Mens&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/bound-agatha-knit-polo-in-tan/dp/BOUR-MS12/?d=Mens&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_11</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK104_V1.jpg</t>
   </si>
   <si>
-    <t>Polo Ralph Lauren</t>
-  </si>
-  <si>
     <t>Bear Sweater</t>
   </si>
   <si>
     <t>CA$ 192.27</t>
   </si>
   <si>
-    <t>https://www.revolve.com/polo-ralph-lauren-bear-sweater-in-aviator-navy/dp/PLAU-MK104/?d=Mens&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/polo-ralph-lauren-bear-sweater-in-aviator-navy/dp/PLAU-MK104/?d=Mens&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_12</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MK10M_V1.jpg</t>
@@ -179,40 +221,127 @@
     <t>Argyle Sweater Cardigan</t>
   </si>
   <si>
+    <t>CA$ 221.11</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/wao-argyle-sweater-cardigan-in-brown-cream/dp/WAOR-MK10/?d=Mens&amp;page=1&amp;lc=13&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_13</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK1M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Collegiate Vest</t>
+  </si>
+  <si>
+    <t>CA$ 272.38</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-collegiate-vest-in-ivory/dp/BEVR-WK1/?d=Mens&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_14</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MK1M_V1.jpg</t>
+  </si>
+  <si>
     <t>CA$ 185.86</t>
   </si>
   <si>
-    <t>https://www.revolve.com/wao-argyle-sweater-cardigan-in-brown-cream/dp/WAOR-MK10/?d=Mens&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/wao-argyle-sweater-cardigan-in-grey-black/dp/WAOR-MK1/?d=Mens&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_15</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MK9M_V1.jpg</t>
   </si>
   <si>
-    <t>CA$ 221.11</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/wao-argyle-sweater-cardigan-in-brown-burgundy/dp/WAOR-MK9/?d=Mens&amp;page=1&amp;lc=13&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MK1M_V1.jpg</t>
+    <t>CA$ 616.86</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/wao-argyle-sweater-cardigan-in-brown-burgundy/dp/WAOR-MK9/?d=Mens&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_16</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS20_V1.jpg</t>
+  </si>
+  <si>
+    <t>Erice Polo</t>
+  </si>
+  <si>
+    <t>CA$ 137.76</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/bound-erice-polo-in-green-cream/dp/BOUR-MS20/?d=Mens&amp;page=1&amp;lc=17&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_17</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK3M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Turtleneck Sweater</t>
+  </si>
+  <si>
+    <t>CA$ 149.03</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-turtleneck-sweater-in-navy/dp/BEVR-WK3/?d=Mens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_18</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK8M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Crew Neck Sweater</t>
   </si>
   <si>
     <t>CA$ 312.43</t>
   </si>
   <si>
-    <t>https://www.revolve.com/wao-argyle-sweater-cardigan-in-grey-black/dp/WAOR-MK1/?d=Mens&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK1M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Collegiate Vest</t>
-  </si>
-  <si>
-    <t>CA$ 616.86</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-collegiate-vest-in-ivory/dp/BEVR-WK1/?d=Mens&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-crew-neck-sweater-in-ivory/dp/BEVR-WK8/?d=Mens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_19</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/QUIR-MS1M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Qg Sport Long Sleeve Polo</t>
+  </si>
+  <si>
+    <t>CA$ 1,874.61</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/quiet-golf-qg-sport-long-sleeve-polo-in-burgundy/dp/QUIR-MS1/?d=Mens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_20</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK100_V1.jpg</t>
+  </si>
+  <si>
+    <t>Textured Sweater</t>
+  </si>
+  <si>
+    <t>CA$ 632.88</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/polo-ralph-lauren-textured-sweater-in-deckwash-white-combo/dp/PLAU-MK100/?d=Mens&amp;page=1&amp;lc=21&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_21</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK2M_V1.jpg</t>
@@ -221,82 +350,94 @@
     <t>Cable Crew Neck Sweater</t>
   </si>
   <si>
-    <t>CA$ 137.76</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-cable-crew-neck-sweater-in-ivory/dp/BEVR-WK2/?d=Mens&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS20_V1.jpg</t>
-  </si>
-  <si>
-    <t>Erice Polo</t>
-  </si>
-  <si>
-    <t>CA$ 1,946.71</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bound-erice-polo-in-green-cream/dp/BOUR-MS20/?d=Mens&amp;page=1&amp;lc=17&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK3M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Turtleneck Sweater</t>
-  </si>
-  <si>
-    <t>CA$ 632.88</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-turtleneck-sweater-in-navy/dp/BEVR-WK3/?d=Mens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK8M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Crew Neck Sweater</t>
-  </si>
-  <si>
-    <t>CA$ 1,874.61</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-crew-neck-sweater-in-ivory/dp/BEVR-WK8/?d=Mens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/QUIR-MS1M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Qg Sport Long Sleeve Polo</t>
+    <t>CA$ 360.50</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-cable-crew-neck-sweater-in-ivory/dp/BEVR-WK2/?d=Mens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_22</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BPLS-MS43_V1.jpg</t>
+  </si>
+  <si>
+    <t>Beams Plus</t>
+  </si>
+  <si>
+    <t>Knit Tee Jacquard</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/beams-plus-knit-tee-jacquard-in-burgundy/dp/BPLS-MS43/?d=Mens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_23</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS18_V1.jpg</t>
+  </si>
+  <si>
+    <t>Theodore 1/4 Heavy Knit Polo</t>
+  </si>
+  <si>
+    <t>CA$ 197.07</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/bound-theodore-14-heavy-knit-polo-in-green/dp/BOUR-MS18/?d=Mens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_24</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SEDF-MS20_V1.jpg</t>
+  </si>
+  <si>
+    <t>SIEDRES</t>
+  </si>
+  <si>
+    <t>Henry Resort Collar Crocheted Long Sleeve Shirt</t>
   </si>
   <si>
     <t>CA$ 2,002.78</t>
   </si>
   <si>
-    <t>https://www.revolve.com/quiet-golf-qg-sport-long-sleeve-polo-in-burgundy/dp/QUIR-MS1/?d=Mens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS18_V1.jpg</t>
-  </si>
-  <si>
-    <t>Theodore 1/4 Heavy Knit Polo</t>
-  </si>
-  <si>
-    <t>CA$ 360.50</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bound-theodore-14-heavy-knit-polo-in-green/dp/BOUR-MS18/?d=Mens&amp;page=1&amp;lc=21&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK100_V1.jpg</t>
-  </si>
-  <si>
-    <t>Textured Sweater</t>
+    <t>https://www.revolve.com/siedres-henry-resort-collar-crocheted-long-sleeve-shirt-in-ecru/dp/SEDF-MS20/?d=Mens&amp;page=1&amp;lc=25&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_25</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BRIX-MK10_V1.jpg</t>
+  </si>
+  <si>
+    <t>Brixton</t>
+  </si>
+  <si>
+    <t>Jacques Waffle Knit Sweater</t>
+  </si>
+  <si>
+    <t>CA$ 100.61</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/brixton-jacques-waffle-knit-sweater-in-pine-needle/dp/BRIX-MK10/?d=Mens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_26</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MS58M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Short Sleeve Knit Polo</t>
   </si>
   <si>
     <t>CA$ 584.81</t>
   </si>
   <si>
-    <t>https://www.revolve.com/polo-ralph-lauren-textured-sweater-in-deckwash-white-combo/dp/PLAU-MK100/?d=Mens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/wao-short-sleeve-knit-polo-in-off-white/dp/WAOR-MS58/?d=Mens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_27</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/VINCE-MS170_V1.jpg</t>
@@ -308,49 +449,31 @@
     <t>Boucle Short Sleeve Button Down Shirt</t>
   </si>
   <si>
-    <t>https://www.revolve.com/vince-boucle-short-sleeve-button-down-shirt-in-soft-black/dp/VINCE-MS170/?d=Mens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SEDF-MS20_V1.jpg</t>
-  </si>
-  <si>
-    <t>SIEDRES</t>
-  </si>
-  <si>
-    <t>Henry Resort Collar Crocheted Long Sleeve Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 197.07</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/siedres-henry-resort-collar-crocheted-long-sleeve-shirt-in-ecru/dp/SEDF-MS20/?d=Mens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BRIX-MK10_V1.jpg</t>
-  </si>
-  <si>
-    <t>Brixton</t>
-  </si>
-  <si>
-    <t>Jacques Waffle Knit Sweater</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/brixton-jacques-waffle-knit-sweater-in-pine-needle/dp/BRIX-MK10/?d=Mens&amp;page=1&amp;lc=25&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PALF-MK67_V1.jpg</t>
-  </si>
-  <si>
-    <t>Palm Angels</t>
-  </si>
-  <si>
-    <t>X Formula 1 Racing Knit Polo Zip Sweater</t>
-  </si>
-  <si>
     <t>CA$ 472.66</t>
   </si>
   <si>
-    <t>https://www.revolve.com/palm-angels-x-formula-1-racing-knit-polo-zip-sweater-in-white-red-black/dp/PALF-MK67/?d=Mens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/vince-boucle-short-sleeve-button-down-shirt-in-soft-black/dp/VINCE-MS170/?d=Mens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_28</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MK113_V1.jpg</t>
+  </si>
+  <si>
+    <t>OFF-WHITE</t>
+  </si>
+  <si>
+    <t>Mohair Arrow Knit Crewneck</t>
+  </si>
+  <si>
+    <t>CA$ 222.71</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/offwhite-mohair-arrow-knit-crewneck-in-black/dp/OFFF-MK113/?d=Mens&amp;page=1&amp;lc=29&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_29</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/CRID-MS32_V1.jpg</t>
@@ -362,79 +485,157 @@
     <t>Plated Short Sleeve Shirt</t>
   </si>
   <si>
-    <t>CA$ 431.00</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/corridor-plated-short-sleeve-shirt-in-green/dp/CRID-MS32/?d=Mens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MK113_V1.jpg</t>
-  </si>
-  <si>
-    <t>OFF-WHITE</t>
-  </si>
-  <si>
-    <t>Mohair Arrow Knit Crewneck</t>
+    <t>https://www.revolve.com/corridor-plated-short-sleeve-shirt-in-green/dp/CRID-MS32/?d=Mens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_30</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SERR-WK3M_V1.jpg</t>
+  </si>
+  <si>
+    <t>SER.O.YA</t>
+  </si>
+  <si>
+    <t>Devin Sweater</t>
+  </si>
+  <si>
+    <t>CA$ 151.70</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/seroya-devin-sweater-in-tan/dp/SERR-WK3/?d=Mens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_31</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SERR-WK16M_V1.jpg</t>
+  </si>
+  <si>
+    <t>CA$ 317.24</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/seroya-devin-sweater-in-black/dp/SERR-WK16/?d=Mens&amp;page=1&amp;lc=33&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_32</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS3_V1.jpg</t>
+  </si>
+  <si>
+    <t>Ennio Long Sleeve Polo</t>
+  </si>
+  <si>
+    <t>CA$ 176.25</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/bound-ennio-long-sleeve-polo-in-ennion-brown/dp/BOUR-MS3/?d=Mens&amp;page=1&amp;lc=34&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_33</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MK121_V1.jpg</t>
+  </si>
+  <si>
+    <t>3d Diag Knit Crewneck</t>
+  </si>
+  <si>
+    <t>CA$ 108.35</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/offwhite-3d-diag-knit-crewneck-in-black/dp/OFFF-MK121/?d=Mens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_34</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/EDHA-MK6M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Ed Hardy</t>
+  </si>
+  <si>
+    <t>Flame Skull Hoodie</t>
+  </si>
+  <si>
+    <t>CA$ 1,185.65</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/ed-hardy-flame-skull-hoodie-in-ivory/dp/EDHA-MK6/?d=Mens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_35</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/VINCE-MS169_V1.jpg</t>
+  </si>
+  <si>
+    <t>Crochet Stripe Short Sleeve Button Down Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 189.06</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/vince-crochet-stripe-short-sleeve-button-down-shirt-in-dried-cactus/dp/VINCE-MS169/?d=Mens&amp;page=1&amp;lc=37&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_36</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/APC-MS145_V1.jpg</t>
+  </si>
+  <si>
+    <t>A.P.C.</t>
+  </si>
+  <si>
+    <t>Polo Jay</t>
+  </si>
+  <si>
+    <t>CA$ 98.85</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/apc-polo-jay-in-beige/dp/APC-MS145/?d=Mens&amp;page=1&amp;lc=38&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_37</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PSTL-WK61M_V1.jpg</t>
+  </si>
+  <si>
+    <t>PISTOLA</t>
+  </si>
+  <si>
+    <t>Carlen Mock Neck Sweater</t>
   </si>
   <si>
     <t>CA$ 288.40</t>
   </si>
   <si>
-    <t>https://www.revolve.com/offwhite-mohair-arrow-knit-crewneck-in-black/dp/OFFF-MK113/?d=Mens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MK121_V1.jpg</t>
-  </si>
-  <si>
-    <t>3d Diag Knit Crewneck</t>
-  </si>
-  <si>
-    <t>CA$ 222.71</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/offwhite-3d-diag-knit-crewneck-in-black/dp/OFFF-MK121/?d=Mens&amp;page=1&amp;lc=30&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SERR-WK3M_V1.jpg</t>
-  </si>
-  <si>
-    <t>SER.O.YA</t>
-  </si>
-  <si>
-    <t>Devin Sweater</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/seroya-devin-sweater-in-tan/dp/SERR-WK3/?d=Mens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/VINCE-MS169_V1.jpg</t>
-  </si>
-  <si>
-    <t>Crochet Stripe Short Sleeve Button Down Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 189.06</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/vince-crochet-stripe-short-sleeve-button-down-shirt-in-dried-cactus/dp/VINCE-MS169/?d=Mens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SERR-WK16M_V1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/seroya-devin-sweater-in-black/dp/SERR-WK16/?d=Mens&amp;page=1&amp;lc=33&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS3_V1.jpg</t>
-  </si>
-  <si>
-    <t>Ennio Long Sleeve Polo</t>
-  </si>
-  <si>
-    <t>CA$ 317.24</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bound-ennio-long-sleeve-polo-in-ennion-brown/dp/BOUR-MS3/?d=Mens&amp;page=1&amp;lc=34&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/pistola-carlen-mock-neck-sweater-in-fern/dp/PSTL-WK61/?d=Mens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_38</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/HIFF-MS52_V1.jpg</t>
+  </si>
+  <si>
+    <t>Honor The Gift</t>
+  </si>
+  <si>
+    <t>A-spring Dazed Button Up Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 280.39</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/honor-the-gift-aspring-dazed-button-up-shirt-in-bone/dp/HIFF-MS52/?d=Mens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_39</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MS95_V1.jpg</t>
@@ -446,106 +647,19 @@
     <t>Open Weave Short Sleeve Shirt</t>
   </si>
   <si>
-    <t>CA$ 176.25</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/frame-open-weave-short-sleeve-shirt-in-smoke-beige/dp/FAMF-MS95/?d=Mens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/APC-MS145_V1.jpg</t>
-  </si>
-  <si>
-    <t>A.P.C.</t>
-  </si>
-  <si>
-    <t>Polo Jay</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/apc-polo-jay-in-beige/dp/APC-MS145/?d=Mens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PSTL-WK61M_V1.jpg</t>
-  </si>
-  <si>
-    <t>PISTOLA</t>
-  </si>
-  <si>
-    <t>Carlen Mock Neck Sweater</t>
-  </si>
-  <si>
-    <t>CA$ 1,185.65</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/pistola-carlen-mock-neck-sweater-in-fern/dp/PSTL-WK61/?d=Mens&amp;page=1&amp;lc=37&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MK45_V1.jpg</t>
-  </si>
-  <si>
-    <t>ALLSAINTS</t>
-  </si>
-  <si>
-    <t>Berkley Cardigan</t>
-  </si>
-  <si>
-    <t>CA$ 83.64</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/allsaints-berkley-cardigan-in-cinder-black-marl/dp/ALLR-MK45/?d=Mens&amp;page=1&amp;lc=38&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ENCR-MS5_V1.jpg</t>
-  </si>
-  <si>
-    <t>Enchante</t>
-  </si>
-  <si>
-    <t>Pointelle Knit Polo</t>
-  </si>
-  <si>
-    <t>CA$ 151.70</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/enchante-pointelle-knit-polo-in-navy/dp/ENCR-MS5/?d=Mens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/HIFF-MS52_V1.jpg</t>
-  </si>
-  <si>
-    <t>Honor The Gift</t>
-  </si>
-  <si>
-    <t>A-spring Dazed Button Up Shirt</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/honor-the-gift-aspring-dazed-button-up-shirt-in-bone/dp/HIFF-MS52/?d=Mens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/MKET-MK10_V1.jpg</t>
-  </si>
-  <si>
-    <t>Market</t>
-  </si>
-  <si>
-    <t>Paint Dept Cardigan</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/market-paint-dept-cardigan-in-khaki/dp/MKET-MK10/?d=Mens&amp;page=1&amp;lc=41&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/DEUS-MK12_V1.jpg</t>
-  </si>
-  <si>
-    <t>Deus Ex Machina</t>
-  </si>
-  <si>
-    <t>Super Nova Moto Knit Sweater</t>
-  </si>
-  <si>
-    <t>CA$ 456.63</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/deus-ex-machina-super-nova-moto-knit-sweater-in-black/dp/DEUS-MK12/?d=Mens&amp;page=1&amp;lc=42&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/frame-open-weave-short-sleeve-shirt-in-smoke-beige/dp/FAMF-MS95/?d=Mens&amp;page=1&amp;lc=41&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_40</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OBEY-MK58_V1.jpg</t>
+  </si>
+  <si>
+    <t>Anderson 60's Cardigan</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/obey-anderson-60s-cardigan-in-green-multi/dp/OBEY-MK58/?d=Mens&amp;page=1&amp;lc=42&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
 </sst>
 </file>
@@ -638,782 +752,782 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>67</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>8</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>68</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>107</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>117</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>136</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>140</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>145</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>149</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>6</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>154</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>6</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>159</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>164</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>168</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>172</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>174</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>177</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/menRevolveSweater.xlsx
+++ b/src/main/resources/menRevolveSweater.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="218">
   <si>
     <t>Id</t>
   </si>
@@ -62,430 +62,436 @@
     <t>7 Horse Crewneck</t>
   </si>
   <si>
+    <t>CA$ 240.33</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/wish-me-luck-7-horse-crewneck-in-mustard/dp/WIME-MK1/?d=Mens&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_3</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LCDE-WK146M_V1.jpg</t>
+  </si>
+  <si>
+    <t>L'Academie</t>
+  </si>
+  <si>
+    <t>Hara Sweater Vest</t>
+  </si>
+  <si>
+    <t>CA$ 127.74</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/lacademie-hara-sweater-vest-in-tamarind/dp/LCDE-WK146/?d=Mens&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_4</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/QUIR-MK3M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Quiet Golf</t>
+  </si>
+  <si>
+    <t>Quiet Greens Knit Sweater</t>
+  </si>
+  <si>
+    <t>CA$ 181.05</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/quiet-golf-quiet-greens-knit-sweater-in-forest/dp/QUIR-MK3/?d=Mens&amp;page=1&amp;lc=5&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_5</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK5M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Long Sleeve Cashmere Polo</t>
+  </si>
+  <si>
+    <t>CA$ 637.69</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-long-sleeve-cashmere-polo-in-black/dp/BEVR-WK5/?d=Mens&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_6</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK7M_V1.jpg</t>
+  </si>
+  <si>
+    <t>V Neck Sweater</t>
+  </si>
+  <si>
     <t>CA$ 237.13</t>
   </si>
   <si>
-    <t>https://www.revolve.com/wish-me-luck-7-horse-crewneck-in-mustard/dp/WIME-MK1/?d=Mens&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_3</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LCDE-WK146M_V1.jpg</t>
-  </si>
-  <si>
-    <t>L'Academie</t>
-  </si>
-  <si>
-    <t>Hara Sweater Vest</t>
-  </si>
-  <si>
-    <t>CA$ 240.33</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lacademie-hara-sweater-vest-in-tamarind/dp/LCDE-WK146/?d=Mens&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_4</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK49M_V1.jpg</t>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-v-neck-sweater-in-ivory/dp/BEVR-WK7/?d=Mens&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_7</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OBEY-MS357_V1.jpg</t>
+  </si>
+  <si>
+    <t>Obey</t>
+  </si>
+  <si>
+    <t>Tear Drop Open Knit Shirt</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/obey-tear-drop-open-knit-shirt-in-hydrangea/dp/OBEY-MS357/?d=Mens&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_8</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK6M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Collegiate Cardigan</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-collegiate-cardigan-in-white/dp/BEVR-WK6/?d=Mens&amp;page=1&amp;lc=9&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_9</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS12_V1.jpg</t>
+  </si>
+  <si>
+    <t>Bound</t>
+  </si>
+  <si>
+    <t>Agatha Knit Polo</t>
+  </si>
+  <si>
+    <t>CA$ 179.45</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/bound-agatha-knit-polo-in-tan/dp/BOUR-MS12/?d=Mens&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_10</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK104_V1.jpg</t>
   </si>
   <si>
     <t>Polo Ralph Lauren</t>
   </si>
   <si>
-    <t>Cable Sweater</t>
-  </si>
-  <si>
-    <t>CA$ 127.74</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/polo-ralph-lauren-cable-sweater-in-andover-cream/dp/PLAU-MK49/?d=Mens&amp;page=1&amp;lc=5&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_5</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/QUIR-MK3M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Quiet Golf</t>
-  </si>
-  <si>
-    <t>Quiet Greens Knit Sweater</t>
-  </si>
-  <si>
-    <t>CA$ 181.05</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/quiet-golf-quiet-greens-knit-sweater-in-forest/dp/QUIR-MK3/?d=Mens&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_6</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK5M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Long Sleeve Cashmere Polo</t>
-  </si>
-  <si>
-    <t>CA$ 637.69</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-long-sleeve-cashmere-polo-in-black/dp/BEVR-WK5/?d=Mens&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_7</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK7M_V1.jpg</t>
-  </si>
-  <si>
-    <t>V Neck Sweater</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-v-neck-sweater-in-ivory/dp/BEVR-WK7/?d=Mens&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_8</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OBEY-MS357_V1.jpg</t>
-  </si>
-  <si>
-    <t>Obey</t>
-  </si>
-  <si>
-    <t>Tear Drop Open Knit Shirt</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/obey-tear-drop-open-knit-shirt-in-hydrangea/dp/OBEY-MS357/?d=Mens&amp;page=1&amp;lc=9&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_9</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK6M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Collegiate Cardigan</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-collegiate-cardigan-in-white/dp/BEVR-WK6/?d=Mens&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_10</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS12_V1.jpg</t>
-  </si>
-  <si>
-    <t>Bound</t>
-  </si>
-  <si>
-    <t>Agatha Knit Polo</t>
-  </si>
-  <si>
-    <t>CA$ 179.45</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bound-agatha-knit-polo-in-tan/dp/BOUR-MS12/?d=Mens&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+    <t>Bear Sweater</t>
+  </si>
+  <si>
+    <t>CA$ 192.27</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/polo-ralph-lauren-bear-sweater-in-aviator-navy/dp/PLAU-MK104/?d=Mens&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_11</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK104_V1.jpg</t>
-  </si>
-  <si>
-    <t>Bear Sweater</t>
-  </si>
-  <si>
-    <t>CA$ 192.27</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/polo-ralph-lauren-bear-sweater-in-aviator-navy/dp/PLAU-MK104/?d=Mens&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MK10M_V1.jpg</t>
+  </si>
+  <si>
+    <t>WAO</t>
+  </si>
+  <si>
+    <t>Argyle Sweater Cardigan</t>
+  </si>
+  <si>
+    <t>CA$ 221.11</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/wao-argyle-sweater-cardigan-in-brown-cream/dp/WAOR-MK10/?d=Mens&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_12</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MK10M_V1.jpg</t>
-  </si>
-  <si>
-    <t>WAO</t>
-  </si>
-  <si>
-    <t>Argyle Sweater Cardigan</t>
-  </si>
-  <si>
-    <t>CA$ 221.11</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/wao-argyle-sweater-cardigan-in-brown-cream/dp/WAOR-MK10/?d=Mens&amp;page=1&amp;lc=13&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK1M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Collegiate Vest</t>
+  </si>
+  <si>
+    <t>CA$ 272.38</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-collegiate-vest-in-ivory/dp/BEVR-WK1/?d=Mens&amp;page=1&amp;lc=13&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_13</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK1M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Collegiate Vest</t>
-  </si>
-  <si>
-    <t>CA$ 272.38</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-collegiate-vest-in-ivory/dp/BEVR-WK1/?d=Mens&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MK1M_V1.jpg</t>
+  </si>
+  <si>
+    <t>CA$ 185.86</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/wao-argyle-sweater-cardigan-in-grey-black/dp/WAOR-MK1/?d=Mens&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_14</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MK1M_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 185.86</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/wao-argyle-sweater-cardigan-in-grey-black/dp/WAOR-MK1/?d=Mens&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MK9M_V1.jpg</t>
+  </si>
+  <si>
+    <t>CA$ 616.86</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/wao-argyle-sweater-cardigan-in-brown-burgundy/dp/WAOR-MK9/?d=Mens&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_15</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MK9M_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 616.86</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/wao-argyle-sweater-cardigan-in-brown-burgundy/dp/WAOR-MK9/?d=Mens&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS20_V1.jpg</t>
+  </si>
+  <si>
+    <t>Erice Polo</t>
+  </si>
+  <si>
+    <t>CA$ 137.76</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/bound-erice-polo-in-green-cream/dp/BOUR-MS20/?d=Mens&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_16</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS20_V1.jpg</t>
-  </si>
-  <si>
-    <t>Erice Polo</t>
-  </si>
-  <si>
-    <t>CA$ 137.76</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bound-erice-polo-in-green-cream/dp/BOUR-MS20/?d=Mens&amp;page=1&amp;lc=17&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK3M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Turtleneck Sweater</t>
+  </si>
+  <si>
+    <t>CA$ 149.03</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-turtleneck-sweater-in-navy/dp/BEVR-WK3/?d=Mens&amp;page=1&amp;lc=17&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_17</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK3M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Turtleneck Sweater</t>
-  </si>
-  <si>
-    <t>CA$ 149.03</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-turtleneck-sweater-in-navy/dp/BEVR-WK3/?d=Mens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK8M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Crew Neck Sweater</t>
+  </si>
+  <si>
+    <t>CA$ 312.43</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-crew-neck-sweater-in-ivory/dp/BEVR-WK8/?d=Mens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_18</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK8M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Crew Neck Sweater</t>
-  </si>
-  <si>
-    <t>CA$ 312.43</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-crew-neck-sweater-in-ivory/dp/BEVR-WK8/?d=Mens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/QUIR-MS1M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Qg Sport Long Sleeve Polo</t>
+  </si>
+  <si>
+    <t>CA$ 1,874.61</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/quiet-golf-qg-sport-long-sleeve-polo-in-burgundy/dp/QUIR-MS1/?d=Mens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_19</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/QUIR-MS1M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Qg Sport Long Sleeve Polo</t>
-  </si>
-  <si>
-    <t>CA$ 1,874.61</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/quiet-golf-qg-sport-long-sleeve-polo-in-burgundy/dp/QUIR-MS1/?d=Mens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK100_V1.jpg</t>
+  </si>
+  <si>
+    <t>Textured Sweater</t>
+  </si>
+  <si>
+    <t>CA$ 632.88</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/polo-ralph-lauren-textured-sweater-in-deckwash-white-combo/dp/PLAU-MK100/?d=Mens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_20</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK100_V1.jpg</t>
-  </si>
-  <si>
-    <t>Textured Sweater</t>
-  </si>
-  <si>
-    <t>CA$ 632.88</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/polo-ralph-lauren-textured-sweater-in-deckwash-white-combo/dp/PLAU-MK100/?d=Mens&amp;page=1&amp;lc=21&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK2M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Cable Crew Neck Sweater</t>
+  </si>
+  <si>
+    <t>CA$ 269.17</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-cable-crew-neck-sweater-in-ivory/dp/BEVR-WK2/?d=Mens&amp;page=1&amp;lc=21&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_21</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK2M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Cable Crew Neck Sweater</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BPLS-MS43_V1.jpg</t>
+  </si>
+  <si>
+    <t>Beams Plus</t>
+  </si>
+  <si>
+    <t>Knit Tee Jacquard</t>
   </si>
   <si>
     <t>CA$ 360.50</t>
   </si>
   <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-cable-crew-neck-sweater-in-ivory/dp/BEVR-WK2/?d=Mens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/beams-plus-knit-tee-jacquard-in-burgundy/dp/BPLS-MS43/?d=Mens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_22</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BPLS-MS43_V1.jpg</t>
-  </si>
-  <si>
-    <t>Beams Plus</t>
-  </si>
-  <si>
-    <t>Knit Tee Jacquard</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/beams-plus-knit-tee-jacquard-in-burgundy/dp/BPLS-MS43/?d=Mens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS18_V1.jpg</t>
+  </si>
+  <si>
+    <t>Theodore 1/4 Heavy Knit Polo</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/bound-theodore-14-heavy-knit-polo-in-green/dp/BOUR-MS18/?d=Mens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_23</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS18_V1.jpg</t>
-  </si>
-  <si>
-    <t>Theodore 1/4 Heavy Knit Polo</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SEDF-MS20_V1.jpg</t>
+  </si>
+  <si>
+    <t>SIEDRES</t>
+  </si>
+  <si>
+    <t>Henry Resort Collar Crocheted Long Sleeve Shirt</t>
   </si>
   <si>
     <t>CA$ 197.07</t>
   </si>
   <si>
-    <t>https://www.revolve.com/bound-theodore-14-heavy-knit-polo-in-green/dp/BOUR-MS18/?d=Mens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/siedres-henry-resort-collar-crocheted-long-sleeve-shirt-in-ecru/dp/SEDF-MS20/?d=Mens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_24</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SEDF-MS20_V1.jpg</t>
-  </si>
-  <si>
-    <t>SIEDRES</t>
-  </si>
-  <si>
-    <t>Henry Resort Collar Crocheted Long Sleeve Shirt</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BRIX-MK10_V1.jpg</t>
+  </si>
+  <si>
+    <t>Brixton</t>
+  </si>
+  <si>
+    <t>Jacques Waffle Knit Sweater</t>
   </si>
   <si>
     <t>CA$ 2,002.78</t>
   </si>
   <si>
-    <t>https://www.revolve.com/siedres-henry-resort-collar-crocheted-long-sleeve-shirt-in-ecru/dp/SEDF-MS20/?d=Mens&amp;page=1&amp;lc=25&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/brixton-jacques-waffle-knit-sweater-in-pine-needle/dp/BRIX-MK10/?d=Mens&amp;page=1&amp;lc=25&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_25</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BRIX-MK10_V1.jpg</t>
-  </si>
-  <si>
-    <t>Brixton</t>
-  </si>
-  <si>
-    <t>Jacques Waffle Knit Sweater</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MS58M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Short Sleeve Knit Polo</t>
   </si>
   <si>
     <t>CA$ 100.61</t>
   </si>
   <si>
-    <t>https://www.revolve.com/brixton-jacques-waffle-knit-sweater-in-pine-needle/dp/BRIX-MK10/?d=Mens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/wao-short-sleeve-knit-polo-in-off-white/dp/WAOR-MS58/?d=Mens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_26</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MS58M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Short Sleeve Knit Polo</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/VINCE-MS170_V1.jpg</t>
+  </si>
+  <si>
+    <t>Vince</t>
+  </si>
+  <si>
+    <t>Boucle Short Sleeve Button Down Shirt</t>
   </si>
   <si>
     <t>CA$ 584.81</t>
   </si>
   <si>
-    <t>https://www.revolve.com/wao-short-sleeve-knit-polo-in-off-white/dp/WAOR-MS58/?d=Mens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/vince-boucle-short-sleeve-button-down-shirt-in-soft-black/dp/VINCE-MS170/?d=Mens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_27</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/VINCE-MS170_V1.jpg</t>
-  </si>
-  <si>
-    <t>Vince</t>
-  </si>
-  <si>
-    <t>Boucle Short Sleeve Button Down Shirt</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MK113_V1.jpg</t>
+  </si>
+  <si>
+    <t>OFF-WHITE</t>
+  </si>
+  <si>
+    <t>Mohair Arrow Knit Crewneck</t>
   </si>
   <si>
     <t>CA$ 472.66</t>
   </si>
   <si>
-    <t>https://www.revolve.com/vince-boucle-short-sleeve-button-down-shirt-in-soft-black/dp/VINCE-MS170/?d=Mens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/offwhite-mohair-arrow-knit-crewneck-in-black/dp/OFFF-MK113/?d=Mens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_28</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MK113_V1.jpg</t>
-  </si>
-  <si>
-    <t>OFF-WHITE</t>
-  </si>
-  <si>
-    <t>Mohair Arrow Knit Crewneck</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/CRID-MS32_V1.jpg</t>
+  </si>
+  <si>
+    <t>Corridor</t>
+  </si>
+  <si>
+    <t>Plated Short Sleeve Shirt</t>
   </si>
   <si>
     <t>CA$ 222.71</t>
   </si>
   <si>
-    <t>https://www.revolve.com/offwhite-mohair-arrow-knit-crewneck-in-black/dp/OFFF-MK113/?d=Mens&amp;page=1&amp;lc=29&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/corridor-plated-short-sleeve-shirt-in-green/dp/CRID-MS32/?d=Mens&amp;page=1&amp;lc=29&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_29</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/CRID-MS32_V1.jpg</t>
-  </si>
-  <si>
-    <t>Corridor</t>
-  </si>
-  <si>
-    <t>Plated Short Sleeve Shirt</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/corridor-plated-short-sleeve-shirt-in-green/dp/CRID-MS32/?d=Mens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/RAIL-MS150_V1.jpg</t>
+  </si>
+  <si>
+    <t>Rails</t>
+  </si>
+  <si>
+    <t>Silas Shirt</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/rails-silas-shirt-in-white-multi/dp/RAIL-MS150/?d=Mens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_30</t>
@@ -503,7 +509,7 @@
     <t>CA$ 151.70</t>
   </si>
   <si>
-    <t>https://www.revolve.com/seroya-devin-sweater-in-tan/dp/SERR-WK3/?d=Mens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/seroya-devin-sweater-in-tan/dp/SERR-WK3/?d=Mens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_31</t>
@@ -515,7 +521,7 @@
     <t>CA$ 317.24</t>
   </si>
   <si>
-    <t>https://www.revolve.com/seroya-devin-sweater-in-black/dp/SERR-WK16/?d=Mens&amp;page=1&amp;lc=33&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/seroya-devin-sweater-in-black/dp/SERR-WK16/?d=Mens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_32</t>
@@ -530,7 +536,7 @@
     <t>CA$ 176.25</t>
   </si>
   <si>
-    <t>https://www.revolve.com/bound-ennio-long-sleeve-polo-in-ennion-brown/dp/BOUR-MS3/?d=Mens&amp;page=1&amp;lc=34&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/bound-ennio-long-sleeve-polo-in-ennion-brown/dp/BOUR-MS3/?d=Mens&amp;page=1&amp;lc=33&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_33</t>
@@ -545,7 +551,7 @@
     <t>CA$ 108.35</t>
   </si>
   <si>
-    <t>https://www.revolve.com/offwhite-3d-diag-knit-crewneck-in-black/dp/OFFF-MK121/?d=Mens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/offwhite-3d-diag-knit-crewneck-in-black/dp/OFFF-MK121/?d=Mens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_34</t>
@@ -563,7 +569,7 @@
     <t>CA$ 1,185.65</t>
   </si>
   <si>
-    <t>https://www.revolve.com/ed-hardy-flame-skull-hoodie-in-ivory/dp/EDHA-MK6/?d=Mens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/ed-hardy-flame-skull-hoodie-in-ivory/dp/EDHA-MK6/?d=Mens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_35</t>
@@ -578,7 +584,7 @@
     <t>CA$ 189.06</t>
   </si>
   <si>
-    <t>https://www.revolve.com/vince-crochet-stripe-short-sleeve-button-down-shirt-in-dried-cactus/dp/VINCE-MS169/?d=Mens&amp;page=1&amp;lc=37&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/vince-crochet-stripe-short-sleeve-button-down-shirt-in-dried-cactus/dp/VINCE-MS169/?d=Mens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_36</t>
@@ -596,7 +602,7 @@
     <t>CA$ 98.85</t>
   </si>
   <si>
-    <t>https://www.revolve.com/apc-polo-jay-in-beige/dp/APC-MS145/?d=Mens&amp;page=1&amp;lc=38&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/apc-polo-jay-in-beige/dp/APC-MS145/?d=Mens&amp;page=1&amp;lc=37&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_37</t>
@@ -614,7 +620,7 @@
     <t>CA$ 288.40</t>
   </si>
   <si>
-    <t>https://www.revolve.com/pistola-carlen-mock-neck-sweater-in-fern/dp/PSTL-WK61/?d=Mens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/pistola-carlen-mock-neck-sweater-in-fern/dp/PSTL-WK61/?d=Mens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_38</t>
@@ -632,7 +638,7 @@
     <t>CA$ 280.39</t>
   </si>
   <si>
-    <t>https://www.revolve.com/honor-the-gift-aspring-dazed-button-up-shirt-in-bone/dp/HIFF-MS52/?d=Mens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/honor-the-gift-aspring-dazed-button-up-shirt-in-bone/dp/HIFF-MS52/?d=Mens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_39</t>
@@ -647,7 +653,7 @@
     <t>Open Weave Short Sleeve Shirt</t>
   </si>
   <si>
-    <t>https://www.revolve.com/frame-open-weave-short-sleeve-shirt-in-smoke-beige/dp/FAMF-MS95/?d=Mens&amp;page=1&amp;lc=41&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/frame-open-weave-short-sleeve-shirt-in-smoke-beige/dp/FAMF-MS95/?d=Mens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_40</t>
@@ -659,7 +665,7 @@
     <t>Anderson 60's Cardigan</t>
   </si>
   <si>
-    <t>https://www.revolve.com/obey-anderson-60s-cardigan-in-green-multi/dp/OBEY-MK58/?d=Mens&amp;page=1&amp;lc=42&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/obey-anderson-60s-cardigan-in-green-multi/dp/OBEY-MK58/?d=Mens&amp;page=1&amp;lc=41&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
 </sst>
 </file>
@@ -818,53 +824,53 @@
         <v>31</v>
       </c>
       <c r="C6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="E6" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="F6" t="s" s="0">
         <v>34</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>36</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>37</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="F7" t="s" s="0">
         <v>39</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="C8" t="s" s="0">
         <v>42</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>8</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>43</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>44</v>
@@ -878,110 +884,110 @@
         <v>46</v>
       </c>
       <c r="C9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="E9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>48</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="C10" t="s" s="0">
         <v>51</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>8</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>52</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>74</v>
@@ -998,10 +1004,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>78</v>
@@ -1018,516 +1024,516 @@
         <v>81</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="E23" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="B23" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="D23" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="E23" t="s" s="0">
-        <v>112</v>
-      </c>
       <c r="F23" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/menRevolveSweater.xlsx
+++ b/src/main/resources/menRevolveSweater.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="217">
   <si>
     <t>Id</t>
   </si>
@@ -83,12 +83,27 @@
     <t>CA$ 127.74</t>
   </si>
   <si>
-    <t>https://www.revolve.com/lacademie-hara-sweater-vest-in-tamarind/dp/LCDE-WK146/?d=Mens&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/lacademie-hara-sweater-vest-in-tamarind/dp/LCDE-WK146/?d=Mens&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_4</t>
   </si>
   <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK5M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Long Sleeve Cashmere Polo</t>
+  </si>
+  <si>
+    <t>CA$ 181.05</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-long-sleeve-cashmere-polo-in-black/dp/BEVR-WK5/?d=Mens&amp;page=1&amp;lc=5&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_5</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/QUIR-MK3M_V1.jpg</t>
   </si>
   <si>
@@ -98,58 +113,76 @@
     <t>Quiet Greens Knit Sweater</t>
   </si>
   <si>
-    <t>CA$ 181.05</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/quiet-golf-quiet-greens-knit-sweater-in-forest/dp/QUIR-MK3/?d=Mens&amp;page=1&amp;lc=5&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_5</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK5M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Long Sleeve Cashmere Polo</t>
-  </si>
-  <si>
     <t>CA$ 637.69</t>
   </si>
   <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-long-sleeve-cashmere-polo-in-black/dp/BEVR-WK5/?d=Mens&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/quiet-golf-quiet-greens-knit-sweater-in-forest/dp/QUIR-MK3/?d=Mens&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_6</t>
   </si>
   <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OBEY-MS357_V1.jpg</t>
+  </si>
+  <si>
+    <t>Obey</t>
+  </si>
+  <si>
+    <t>Tear Drop Open Knit Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 179.45</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/obey-tear-drop-open-knit-shirt-in-hydrangea/dp/OBEY-MS357/?d=Mens&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_7</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS12_V1.jpg</t>
+  </si>
+  <si>
+    <t>Bound</t>
+  </si>
+  <si>
+    <t>Agatha Knit Polo</t>
+  </si>
+  <si>
+    <t>CA$ 237.13</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/bound-agatha-knit-polo-in-tan/dp/BOUR-MS12/?d=Mens&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_8</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK104_V1.jpg</t>
+  </si>
+  <si>
+    <t>Polo Ralph Lauren</t>
+  </si>
+  <si>
+    <t>Bear Sweater</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/polo-ralph-lauren-bear-sweater-in-aviator-navy/dp/PLAU-MK104/?d=Mens&amp;page=1&amp;lc=9&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_9</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK7M_V1.jpg</t>
   </si>
   <si>
     <t>V Neck Sweater</t>
   </si>
   <si>
-    <t>CA$ 237.13</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-v-neck-sweater-in-ivory/dp/BEVR-WK7/?d=Mens&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_7</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OBEY-MS357_V1.jpg</t>
-  </si>
-  <si>
-    <t>Obey</t>
-  </si>
-  <si>
-    <t>Tear Drop Open Knit Shirt</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/obey-tear-drop-open-knit-shirt-in-hydrangea/dp/OBEY-MS357/?d=Mens&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_8</t>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-v-neck-sweater-in-ivory/dp/BEVR-WK7/?d=Mens&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_10</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK6M_V1.jpg</t>
@@ -158,115 +191,82 @@
     <t>Collegiate Cardigan</t>
   </si>
   <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-collegiate-cardigan-in-white/dp/BEVR-WK6/?d=Mens&amp;page=1&amp;lc=9&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_9</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS12_V1.jpg</t>
-  </si>
-  <si>
-    <t>Bound</t>
-  </si>
-  <si>
-    <t>Agatha Knit Polo</t>
-  </si>
-  <si>
-    <t>CA$ 179.45</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bound-agatha-knit-polo-in-tan/dp/BOUR-MS12/?d=Mens&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_10</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK104_V1.jpg</t>
-  </si>
-  <si>
-    <t>Polo Ralph Lauren</t>
-  </si>
-  <si>
-    <t>Bear Sweater</t>
+    <t>CA$ 272.38</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-collegiate-cardigan-in-white/dp/BEVR-WK6/?d=Mens&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_11</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS20_V1.jpg</t>
+  </si>
+  <si>
+    <t>Erice Polo</t>
+  </si>
+  <si>
+    <t>CA$ 221.11</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/bound-erice-polo-in-green-cream/dp/BOUR-MS20/?d=Mens&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_12</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MK10M_V1.jpg</t>
+  </si>
+  <si>
+    <t>WAO</t>
+  </si>
+  <si>
+    <t>Argyle Sweater Cardigan</t>
+  </si>
+  <si>
+    <t>CA$ 137.76</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/wao-argyle-sweater-cardigan-in-brown-cream/dp/WAOR-MK10/?d=Mens&amp;page=1&amp;lc=13&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_13</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK1M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Collegiate Vest</t>
   </si>
   <si>
     <t>CA$ 192.27</t>
   </si>
   <si>
-    <t>https://www.revolve.com/polo-ralph-lauren-bear-sweater-in-aviator-navy/dp/PLAU-MK104/?d=Mens&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_11</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MK10M_V1.jpg</t>
-  </si>
-  <si>
-    <t>WAO</t>
-  </si>
-  <si>
-    <t>Argyle Sweater Cardigan</t>
-  </si>
-  <si>
-    <t>CA$ 221.11</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/wao-argyle-sweater-cardigan-in-brown-cream/dp/WAOR-MK10/?d=Mens&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_12</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK1M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Collegiate Vest</t>
-  </si>
-  <si>
-    <t>CA$ 272.38</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-collegiate-vest-in-ivory/dp/BEVR-WK1/?d=Mens&amp;page=1&amp;lc=13&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_13</t>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-collegiate-vest-in-ivory/dp/BEVR-WK1/?d=Mens&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_14</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MK1M_V1.jpg</t>
   </si>
   <si>
+    <t>CA$ 616.86</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/wao-argyle-sweater-cardigan-in-grey-black/dp/WAOR-MK1/?d=Mens&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_15</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MK9M_V1.jpg</t>
+  </si>
+  <si>
     <t>CA$ 185.86</t>
   </si>
   <si>
-    <t>https://www.revolve.com/wao-argyle-sweater-cardigan-in-grey-black/dp/WAOR-MK1/?d=Mens&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_14</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MK9M_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 616.86</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/wao-argyle-sweater-cardigan-in-brown-burgundy/dp/WAOR-MK9/?d=Mens&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_15</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS20_V1.jpg</t>
-  </si>
-  <si>
-    <t>Erice Polo</t>
-  </si>
-  <si>
-    <t>CA$ 137.76</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bound-erice-polo-in-green-cream/dp/BOUR-MS20/?d=Mens&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/wao-argyle-sweater-cardigan-in-brown-burgundy/dp/WAOR-MK9/?d=Mens&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_16</t>
@@ -278,28 +278,94 @@
     <t>Turtleneck Sweater</t>
   </si>
   <si>
+    <t>CA$ 312.43</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-turtleneck-sweater-in-navy/dp/BEVR-WK3/?d=Mens&amp;page=1&amp;lc=17&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_17</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK8M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Crew Neck Sweater</t>
+  </si>
+  <si>
+    <t>CA$ 2,002.78</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-crew-neck-sweater-in-ivory/dp/BEVR-WK8/?d=Mens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_18</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BPLS-MS43_V1.jpg</t>
+  </si>
+  <si>
+    <t>Beams Plus</t>
+  </si>
+  <si>
+    <t>Knit Tee Jacquard</t>
+  </si>
+  <si>
+    <t>CA$ 197.07</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/beams-plus-knit-tee-jacquard-in-burgundy/dp/BPLS-MS43/?d=Mens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_19</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK100_V1.jpg</t>
+  </si>
+  <si>
+    <t>Textured Sweater</t>
+  </si>
+  <si>
+    <t>CA$ 269.17</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/polo-ralph-lauren-textured-sweater-in-deckwash-white-combo/dp/PLAU-MK100/?d=Mens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_20</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BRIX-MK10_V1.jpg</t>
+  </si>
+  <si>
+    <t>Brixton</t>
+  </si>
+  <si>
+    <t>Jacques Waffle Knit Sweater</t>
+  </si>
+  <si>
+    <t>CA$ 632.88</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/brixton-jacques-waffle-knit-sweater-in-pine-needle/dp/BRIX-MK10/?d=Mens&amp;page=1&amp;lc=21&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_21</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK2M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Cable Crew Neck Sweater</t>
+  </si>
+  <si>
     <t>CA$ 149.03</t>
   </si>
   <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-turtleneck-sweater-in-navy/dp/BEVR-WK3/?d=Mens&amp;page=1&amp;lc=17&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_17</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK8M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Crew Neck Sweater</t>
-  </si>
-  <si>
-    <t>CA$ 312.43</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-crew-neck-sweater-in-ivory/dp/BEVR-WK8/?d=Mens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_18</t>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-cable-crew-neck-sweater-in-ivory/dp/BEVR-WK2/?d=Mens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_22</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/QUIR-MS1M_V1.jpg</t>
@@ -308,109 +374,130 @@
     <t>Qg Sport Long Sleeve Polo</t>
   </si>
   <si>
+    <t>CA$ 584.81</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/quiet-golf-qg-sport-long-sleeve-polo-in-burgundy/dp/QUIR-MS1/?d=Mens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_23</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SEDF-MS20_V1.jpg</t>
+  </si>
+  <si>
+    <t>SIEDRES</t>
+  </si>
+  <si>
+    <t>Henry Resort Collar Crocheted Long Sleeve Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 472.66</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/siedres-henry-resort-collar-crocheted-long-sleeve-shirt-in-ecru/dp/SEDF-MS20/?d=Mens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_24</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS18_V1.jpg</t>
+  </si>
+  <si>
+    <t>Theodore 1/4 Heavy Knit Polo</t>
+  </si>
+  <si>
     <t>CA$ 1,874.61</t>
   </si>
   <si>
-    <t>https://www.revolve.com/quiet-golf-qg-sport-long-sleeve-polo-in-burgundy/dp/QUIR-MS1/?d=Mens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_19</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK100_V1.jpg</t>
-  </si>
-  <si>
-    <t>Textured Sweater</t>
-  </si>
-  <si>
-    <t>CA$ 632.88</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/polo-ralph-lauren-textured-sweater-in-deckwash-white-combo/dp/PLAU-MK100/?d=Mens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_20</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK2M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Cable Crew Neck Sweater</t>
-  </si>
-  <si>
-    <t>CA$ 269.17</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-cable-crew-neck-sweater-in-ivory/dp/BEVR-WK2/?d=Mens&amp;page=1&amp;lc=21&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_21</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BPLS-MS43_V1.jpg</t>
-  </si>
-  <si>
-    <t>Beams Plus</t>
-  </si>
-  <si>
-    <t>Knit Tee Jacquard</t>
+    <t>https://www.revolve.com/bound-theodore-14-heavy-knit-polo-in-green/dp/BOUR-MS18/?d=Mens&amp;page=1&amp;lc=25&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_25</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/VINCE-MS170_V1.jpg</t>
+  </si>
+  <si>
+    <t>Vince</t>
+  </si>
+  <si>
+    <t>Boucle Short Sleeve Button Down Shirt</t>
   </si>
   <si>
     <t>CA$ 360.50</t>
   </si>
   <si>
-    <t>https://www.revolve.com/beams-plus-knit-tee-jacquard-in-burgundy/dp/BPLS-MS43/?d=Mens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_22</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS18_V1.jpg</t>
-  </si>
-  <si>
-    <t>Theodore 1/4 Heavy Knit Polo</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bound-theodore-14-heavy-knit-polo-in-green/dp/BOUR-MS18/?d=Mens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_23</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SEDF-MS20_V1.jpg</t>
-  </si>
-  <si>
-    <t>SIEDRES</t>
-  </si>
-  <si>
-    <t>Henry Resort Collar Crocheted Long Sleeve Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 197.07</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/siedres-henry-resort-collar-crocheted-long-sleeve-shirt-in-ecru/dp/SEDF-MS20/?d=Mens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_24</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BRIX-MK10_V1.jpg</t>
-  </si>
-  <si>
-    <t>Brixton</t>
-  </si>
-  <si>
-    <t>Jacques Waffle Knit Sweater</t>
-  </si>
-  <si>
-    <t>CA$ 2,002.78</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/brixton-jacques-waffle-knit-sweater-in-pine-needle/dp/BRIX-MK10/?d=Mens&amp;page=1&amp;lc=25&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_25</t>
+    <t>https://www.revolve.com/vince-boucle-short-sleeve-button-down-shirt-in-soft-black/dp/VINCE-MS170/?d=Mens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_26</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MK121_V1.jpg</t>
+  </si>
+  <si>
+    <t>OFF-WHITE</t>
+  </si>
+  <si>
+    <t>3d Diag Knit Crewneck</t>
+  </si>
+  <si>
+    <t>CA$ 189.06</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/offwhite-3d-diag-knit-crewneck-in-black/dp/OFFF-MK121/?d=Mens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_27</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS3_V1.jpg</t>
+  </si>
+  <si>
+    <t>Ennio Long Sleeve Polo</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/bound-ennio-long-sleeve-polo-in-ennion-brown/dp/BOUR-MS3/?d=Mens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_28</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/RAIL-MS150_V1.jpg</t>
+  </si>
+  <si>
+    <t>Rails</t>
+  </si>
+  <si>
+    <t>Silas Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 176.25</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/rails-silas-shirt-in-white-multi/dp/RAIL-MS150/?d=Mens&amp;page=1&amp;lc=29&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_29</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/CRID-MS32_V1.jpg</t>
+  </si>
+  <si>
+    <t>Corridor</t>
+  </si>
+  <si>
+    <t>Plated Short Sleeve Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 222.71</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/corridor-plated-short-sleeve-shirt-in-green/dp/CRID-MS32/?d=Mens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_30</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MS58M_V1.jpg</t>
@@ -419,82 +506,58 @@
     <t>Short Sleeve Knit Polo</t>
   </si>
   <si>
+    <t>CA$ 151.70</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/wao-short-sleeve-knit-polo-in-off-white/dp/WAOR-MS58/?d=Mens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_31</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/VINCE-MS169_V1.jpg</t>
+  </si>
+  <si>
+    <t>Crochet Stripe Short Sleeve Button Down Shirt</t>
+  </si>
+  <si>
     <t>CA$ 100.61</t>
   </si>
   <si>
-    <t>https://www.revolve.com/wao-short-sleeve-knit-polo-in-off-white/dp/WAOR-MS58/?d=Mens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_26</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/VINCE-MS170_V1.jpg</t>
-  </si>
-  <si>
-    <t>Vince</t>
-  </si>
-  <si>
-    <t>Boucle Short Sleeve Button Down Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 584.81</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/vince-boucle-short-sleeve-button-down-shirt-in-soft-black/dp/VINCE-MS170/?d=Mens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_27</t>
+    <t>https://www.revolve.com/vince-crochet-stripe-short-sleeve-button-down-shirt-in-dried-cactus/dp/VINCE-MS169/?d=Mens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_32</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/APC-MS145_V1.jpg</t>
+  </si>
+  <si>
+    <t>A.P.C.</t>
+  </si>
+  <si>
+    <t>Polo Jay</t>
+  </si>
+  <si>
+    <t>CA$ 98.85</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/apc-polo-jay-in-beige/dp/APC-MS145/?d=Mens&amp;page=1&amp;lc=33&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_33</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MK113_V1.jpg</t>
   </si>
   <si>
-    <t>OFF-WHITE</t>
-  </si>
-  <si>
     <t>Mohair Arrow Knit Crewneck</t>
   </si>
   <si>
-    <t>CA$ 472.66</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/offwhite-mohair-arrow-knit-crewneck-in-black/dp/OFFF-MK113/?d=Mens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_28</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/CRID-MS32_V1.jpg</t>
-  </si>
-  <si>
-    <t>Corridor</t>
-  </si>
-  <si>
-    <t>Plated Short Sleeve Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 222.71</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/corridor-plated-short-sleeve-shirt-in-green/dp/CRID-MS32/?d=Mens&amp;page=1&amp;lc=29&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_29</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/RAIL-MS150_V1.jpg</t>
-  </si>
-  <si>
-    <t>Rails</t>
-  </si>
-  <si>
-    <t>Silas Shirt</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/rails-silas-shirt-in-white-multi/dp/RAIL-MS150/?d=Mens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_30</t>
+    <t>https://www.revolve.com/offwhite-mohair-arrow-knit-crewneck-in-black/dp/OFFF-MK113/?d=Mens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_34</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SERR-WK3M_V1.jpg</t>
@@ -506,108 +569,75 @@
     <t>Devin Sweater</t>
   </si>
   <si>
-    <t>CA$ 151.70</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/seroya-devin-sweater-in-tan/dp/SERR-WK3/?d=Mens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_31</t>
+    <t>CA$ 1,185.65</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/seroya-devin-sweater-in-tan/dp/SERR-WK3/?d=Mens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_35</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/DEUS-MK12_V1.jpg</t>
+  </si>
+  <si>
+    <t>Deus Ex Machina</t>
+  </si>
+  <si>
+    <t>Super Nova Moto Knit Sweater</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/deus-ex-machina-super-nova-moto-knit-sweater-in-black/dp/DEUS-MK12/?d=Mens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_36</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SERR-WK16M_V1.jpg</t>
   </si>
   <si>
-    <t>CA$ 317.24</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/seroya-devin-sweater-in-black/dp/SERR-WK16/?d=Mens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_32</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS3_V1.jpg</t>
-  </si>
-  <si>
-    <t>Ennio Long Sleeve Polo</t>
-  </si>
-  <si>
-    <t>CA$ 176.25</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bound-ennio-long-sleeve-polo-in-ennion-brown/dp/BOUR-MS3/?d=Mens&amp;page=1&amp;lc=33&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_33</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MK121_V1.jpg</t>
-  </si>
-  <si>
-    <t>3d Diag Knit Crewneck</t>
-  </si>
-  <si>
     <t>CA$ 108.35</t>
   </si>
   <si>
-    <t>https://www.revolve.com/offwhite-3d-diag-knit-crewneck-in-black/dp/OFFF-MK121/?d=Mens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_34</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/EDHA-MK6M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Ed Hardy</t>
-  </si>
-  <si>
-    <t>Flame Skull Hoodie</t>
-  </si>
-  <si>
-    <t>CA$ 1,185.65</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/ed-hardy-flame-skull-hoodie-in-ivory/dp/EDHA-MK6/?d=Mens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_35</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/VINCE-MS169_V1.jpg</t>
-  </si>
-  <si>
-    <t>Crochet Stripe Short Sleeve Button Down Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 189.06</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/vince-crochet-stripe-short-sleeve-button-down-shirt-in-dried-cactus/dp/VINCE-MS169/?d=Mens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_36</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/APC-MS145_V1.jpg</t>
-  </si>
-  <si>
-    <t>A.P.C.</t>
-  </si>
-  <si>
-    <t>Polo Jay</t>
-  </si>
-  <si>
-    <t>CA$ 98.85</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/apc-polo-jay-in-beige/dp/APC-MS145/?d=Mens&amp;page=1&amp;lc=37&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/seroya-devin-sweater-in-black/dp/SERR-WK16/?d=Mens&amp;page=1&amp;lc=37&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_sweater_37</t>
   </si>
   <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OBEY-MK47_V1.jpg</t>
+  </si>
+  <si>
+    <t>Luka Splatter Cardigan</t>
+  </si>
+  <si>
+    <t>CA$ 285.20</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/obey-luka-splatter-cardigan-in-java-brown-mult/dp/OBEY-MK47/?d=Mens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_38</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/HIFF-MS52_V1.jpg</t>
+  </si>
+  <si>
+    <t>Honor The Gift</t>
+  </si>
+  <si>
+    <t>A-spring Dazed Button Up Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 392.55</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/honor-the-gift-aspring-dazed-button-up-shirt-in-bone/dp/HIFF-MS52/?d=Mens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_39</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PSTL-WK61M_V1.jpg</t>
   </si>
   <si>
@@ -617,52 +647,19 @@
     <t>Carlen Mock Neck Sweater</t>
   </si>
   <si>
+    <t>https://www.revolve.com/pistola-carlen-mock-neck-sweater-in-fern/dp/PSTL-WK61/?d=Mens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_sweater_40</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OBEY-MK58_V1.jpg</t>
+  </si>
+  <si>
+    <t>Anderson 60's Cardigan</t>
+  </si>
+  <si>
     <t>CA$ 288.40</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/pistola-carlen-mock-neck-sweater-in-fern/dp/PSTL-WK61/?d=Mens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_38</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/HIFF-MS52_V1.jpg</t>
-  </si>
-  <si>
-    <t>Honor The Gift</t>
-  </si>
-  <si>
-    <t>A-spring Dazed Button Up Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 280.39</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/honor-the-gift-aspring-dazed-button-up-shirt-in-bone/dp/HIFF-MS52/?d=Mens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_39</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MS95_V1.jpg</t>
-  </si>
-  <si>
-    <t>FRAME</t>
-  </si>
-  <si>
-    <t>Open Weave Short Sleeve Shirt</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/frame-open-weave-short-sleeve-shirt-in-smoke-beige/dp/FAMF-MS95/?d=Mens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_sweater_40</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OBEY-MK58_V1.jpg</t>
-  </si>
-  <si>
-    <t>Anderson 60's Cardigan</t>
   </si>
   <si>
     <t>https://www.revolve.com/obey-anderson-60s-cardigan-in-green-multi/dp/OBEY-MK58/?d=Mens&amp;page=1&amp;lc=41&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
@@ -804,27 +801,27 @@
         <v>25</v>
       </c>
       <c r="C5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="E5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="F5" t="s" s="0">
         <v>28</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="C6" t="s" s="0">
         <v>31</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>32</v>
@@ -844,87 +841,87 @@
         <v>36</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>38</v>
-      </c>
       <c r="F9" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>58</v>
@@ -944,27 +941,27 @@
         <v>62</v>
       </c>
       <c r="C12" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="E12" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="F12" t="s" s="0">
         <v>65</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="C13" t="s" s="0">
         <v>68</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>8</v>
       </c>
       <c r="D13" t="s" s="0">
         <v>69</v>
@@ -984,50 +981,50 @@
         <v>73</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>83</v>
@@ -1084,193 +1081,193 @@
         <v>96</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F28" t="s" s="0">
         <v>148</v>
@@ -1310,21 +1307,21 @@
         <v>158</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s" s="0">
         <v>163</v>
@@ -1344,196 +1341,196 @@
         <v>167</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D37" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="E37" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="E37" t="s" s="0">
+      <c r="F37" t="s" s="0">
         <v>195</v>
-      </c>
-      <c r="F37" t="s" s="0">
-        <v>196</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B38" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="B38" t="s" s="0">
+      <c r="C38" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s" s="0">
         <v>198</v>
       </c>
-      <c r="C38" t="s" s="0">
+      <c r="E38" t="s" s="0">
         <v>199</v>
       </c>
-      <c r="D38" t="s" s="0">
+      <c r="F38" t="s" s="0">
         <v>200</v>
-      </c>
-      <c r="E38" t="s" s="0">
-        <v>201</v>
-      </c>
-      <c r="F38" t="s" s="0">
-        <v>202</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="C39" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="B39" t="s" s="0">
+      <c r="D39" t="s" s="0">
         <v>204</v>
       </c>
-      <c r="C39" t="s" s="0">
+      <c r="E39" t="s" s="0">
         <v>205</v>
       </c>
-      <c r="D39" t="s" s="0">
+      <c r="F39" t="s" s="0">
         <v>206</v>
-      </c>
-      <c r="E39" t="s" s="0">
-        <v>207</v>
-      </c>
-      <c r="F39" t="s" s="0">
-        <v>208</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="C40" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="B40" t="s" s="0">
+      <c r="D40" t="s" s="0">
         <v>210</v>
       </c>
-      <c r="C40" t="s" s="0">
+      <c r="E40" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F40" t="s" s="0">
         <v>211</v>
-      </c>
-      <c r="D40" t="s" s="0">
-        <v>212</v>
-      </c>
-      <c r="E40" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="F40" t="s" s="0">
-        <v>213</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s" s="0">
         <v>214</v>
       </c>
-      <c r="B41" t="s" s="0">
+      <c r="E41" t="s" s="0">
         <v>215</v>
       </c>
-      <c r="C41" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D41" t="s" s="0">
+      <c r="F41" t="s" s="0">
         <v>216</v>
-      </c>
-      <c r="E41" t="s" s="0">
-        <v>201</v>
-      </c>
-      <c r="F41" t="s" s="0">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
